--- a/biology/Médecine/Fosse_supra-épineuse/Fosse_supra-épineuse.xlsx
+++ b/biology/Médecine/Fosse_supra-épineuse/Fosse_supra-épineuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fosse_supra-%C3%A9pineuse</t>
+          <t>Fosse_supra-épineuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 La fosse supra-épineuse (ou fosse sus-épineuse) est la zone de la face postérieure de la scapula située au-dessus de l'épine de la scapula.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fosse_supra-%C3%A9pineuse</t>
+          <t>Fosse_supra-épineuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse supra-épineuse est une surface lisse triangulaire à sommet externe.
 Elle est délimitée en bas par l'épine de la scapula, latéralement par l'acromion et en haut par l'angle supérieur de la scapula.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fosse_supra-%C3%A9pineuse</t>
+          <t>Fosse_supra-épineuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Rapport</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au niveau de la fosse supra-épineuse, passent l'artère et le nerf supra-scapulaire.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fosse_supra-%C3%A9pineuse</t>
+          <t>Fosse_supra-épineuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le creusement dans la région sus-épineuse et sous-épineuse peut être le signe d'une rupture de la coiffe des rotateurs[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le creusement dans la région sus-épineuse et sous-épineuse peut être le signe d'une rupture de la coiffe des rotateurs.
 Cet amaigrissement peut aussi être causé par un kyste supraglénoïdal comprimant le nerf supra-scapulaire.
 </t>
         </is>
